--- a/medicine/Enfance/Éric_Boisset/Éric_Boisset.xlsx
+++ b/medicine/Enfance/Éric_Boisset/Éric_Boisset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Boisset</t>
+          <t>Éric_Boisset</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éric Boisset est un auteur français né à Valence (Drôme) le 8 novembre 1965[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric Boisset est un auteur français né à Valence (Drôme) le 8 novembre 1965.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Boisset</t>
+          <t>Éric_Boisset</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric_Boisset</t>
+          <t>Éric_Boisset</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Trilogie d'Arkandias
 Le Grimoire d'Arkandias, éditions Magnard  (ISBN 2-210-98460-2). Grand Prix des Jeunes Lecteurs PEEP 1997. Prix des Incorruptibles 1998. Prix des Dévoreurs de Livres 1999.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ric_Boisset</t>
+          <t>Éric_Boisset</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,8 +603,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au cinéma
-Nicostratos le pélican, adapté au cinéma par Olivier Horlait (réalisateur), 2011
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicostratos le pélican, adapté au cinéma par Olivier Horlait (réalisateur), 2011
 Le Grimoire d'Arkandias (film), adapté au cinéma par Julien Simonet (réalisateur), 2014
 </t>
         </is>
